--- a/data_excel/714.xlsx
+++ b/data_excel/714.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,9 +111,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>的</t>
   </si>
   <si>
@@ -127,6 +124,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -688,7 +689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -696,20 +697,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -720,7 +721,7 @@
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -731,10 +732,10 @@
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
